--- a/Gestion de projet/Registre des décisions.xlsx
+++ b/Gestion de projet/Registre des décisions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Google Drive\M2GIL\SPORTIFS\Gestion de projet\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Google Drive\M2GIL\SPORTIFS\MOE\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -124,9 +124,6 @@
     <t>TAXONOMIE</t>
   </si>
   <si>
-    <t>Utiliser une taxonomie avec 10/15 classes pour voir le fonctionnement du moteur de classification et l'enrichier au cours des itérations</t>
-  </si>
-  <si>
     <t>Kevin Cauchois</t>
   </si>
   <si>
@@ -188,6 +185,87 @@
   </si>
   <si>
     <t>Changer la couleur des actions closes (autre que rouge)</t>
+  </si>
+  <si>
+    <t>Utiliser une taxonomie avec 10/15 classes pour voir le fonctionnement du moteur de classification et l'enrichir au cours des itérations</t>
+  </si>
+  <si>
+    <t>Combinaison LIRE + LUCENE retenue</t>
+  </si>
+  <si>
+    <t>plus rapide, pratique et optimal. Usage de deux outils liés</t>
+  </si>
+  <si>
+    <t>Arborescence des fichiers configurable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un Utilisateur a le droit de modifier uniquement la date de publication, la classe de l’image, certains mots clés et les informations extraites
+</t>
+  </si>
+  <si>
+    <t>Utilisation de miniatures</t>
+  </si>
+  <si>
+    <t>La direction et la texture ne doivent pas apparaître sur la description d'une image</t>
+  </si>
+  <si>
+    <t>Afficher les métadonnes EXIF, XMP et IPTC sur la fiche d'une image</t>
+  </si>
+  <si>
+    <t>Les filtres de recherche doivent tous être implémentés. On doit voir le nombre d'images à côté du filtre</t>
+  </si>
+  <si>
+    <t>M. Bruno Grilhères</t>
+  </si>
+  <si>
+    <t>Les rôles de Liferay seront gérés par page et non par portlet</t>
+  </si>
+  <si>
+    <t>Le nombre d’images par page sera de 8 * 10</t>
+  </si>
+  <si>
+    <t>Utilisation de Scalr pour le création des miniatures. Possibilité d'ajouter des bandes transparentes</t>
+  </si>
+  <si>
+    <t>Réalisé lors de l'ajout en base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taxonomie est validée. </t>
+  </si>
+  <si>
+    <t>Utilisation d'un index par modèle</t>
+  </si>
+  <si>
+    <t>La profondeur de la collecte sera la page sur laquelle s'effectue la collecte  + les liens (internes) de la page. (voir pour les domaines / sous domaines)</t>
+  </si>
+  <si>
+    <t>Moyenne de 1 lien / image en plus toutes les 20 minutes.
+Environ 120mo d’image par collecte.</t>
+  </si>
+  <si>
+    <t>Plus rapide, tests, filtres et configurations plus pratiques</t>
+  </si>
+  <si>
+    <t>Utilisation de l'outil Logback pour logger. Mise en place d'un service permettant de lire le fichier</t>
+  </si>
+  <si>
+    <t>Christophe Darcel</t>
+  </si>
+  <si>
+    <t>Gestion des rôles imbriqués</t>
+  </si>
+  <si>
+    <t>Superviseur = Utilisateur++
+Administrateur = Superviseur++</t>
+  </si>
+  <si>
+    <t>Le fil d'Arianne a été supprimé</t>
+  </si>
+  <si>
+    <t>La gestion des doublons et le seuil de classification est global pour l’application</t>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
   </si>
 </sst>
 </file>
@@ -231,40 +309,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -344,40 +394,7 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -392,19 +409,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -433,99 +437,345 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1269,652 +1519,896 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="34">
         <v>41606</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="34">
         <v>41606</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
-        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <f t="shared" ref="A4:A43" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="34">
         <v>41606</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="35">
         <v>41607</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="34">
         <v>41611</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="34">
         <v>41611</v>
       </c>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="34">
         <v>41611</v>
       </c>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="34">
         <v>41607</v>
       </c>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="34">
         <v>41604</v>
       </c>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="E11" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="48">
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="34">
         <v>41611</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="34">
+        <v>41604</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="34">
+        <v>41604</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="34">
+        <v>41611</v>
+      </c>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="34">
+        <v>41618</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="30">
+        <v>41618</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="30">
+        <v>41618</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="B34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="B35" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="B36" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E12" s="48">
-        <v>41611</v>
-      </c>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="B37" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="30">
+        <v>41625</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="48">
-        <v>41611</v>
-      </c>
-      <c r="F13" s="46" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="48">
-        <v>41604</v>
-      </c>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="48">
-        <v>41611</v>
-      </c>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="48">
-        <v>41604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="48">
-        <v>41611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="48">
-        <v>41611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="48">
-        <v>41611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="48">
-        <v>41611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="17"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="18"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="19"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="18"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="17"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="6"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="8"/>
@@ -1952,201 +2446,234 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <conditionalFormatting sqref="D16 D26 D29 D34 D41 D44 D5:D9 D11">
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+  <conditionalFormatting sqref="D16 D34 D41 D44 D5:D9 D11">
+    <cfRule type="cellIs" dxfId="101" priority="88" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="89" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="90" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="76" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="77" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="78" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="83" priority="64" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="65" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="66" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="62" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="63" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="74" priority="55" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="56" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="71" priority="52" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="53" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="51" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46">
+    <cfRule type="cellIs" dxfId="65" priority="46" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="48" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="59" priority="34" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="35" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="27" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
